--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-R.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-R.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-R.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-R.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,37 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +486,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +527,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1101,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1120,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'R': 75.0 ton, 2.44 COP liquid-cooled, centrifugal compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'R': 0.0-150.0 ton, 5.06 COP, 7.99 IPLV liquid-cooled, centrifugal compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1139,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>5813ab96-0e75-4227-99b1-3ad492d0c671</t>
+          <t>cf701e04-f088-4e64-8412-092d8f614182</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1158,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1176,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1481,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>113923.3124936369</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1520,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1539,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1555,81 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1790,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1953,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2108,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2152,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2209,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2231,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2240,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13725.62055776524</v>
+        <v>6629.816940446652</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>67122.15554416052</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>80847.77610192576</v>
+        <v>73751.97248460716</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4504038412421</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.0446122383007</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2268,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2277,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30195.678861115</v>
+        <v>14585.26573710717</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>134244.311088321</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>164439.989949436</v>
+        <v>148829.5768254282</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.8619187935952</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.1993584732323</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2305,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2314,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55994.08915672046</v>
+        <v>27046.54112313214</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>201366.4666324815</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>257360.555789202</v>
+        <v>228413.0077556137</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.2734337459484</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.4829669412042</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2342,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2351,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>91120.85144458163</v>
+        <v>44013.64309852158</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>268488.6221766421</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>359609.4736212237</v>
+        <v>312502.2652751636</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.6849486983016</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.8954376422165</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2379,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2388,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15170.5543127458</v>
+        <v>7327.755969598499</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>63238.08772676683</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>78408.64203951263</v>
+        <v>70565.84369636534</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3687255972143</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.0888672194822</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2416,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2425,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33374.46086644255</v>
+        <v>16120.69669997059</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>126476.1754535337</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>159850.6363199762</v>
+        <v>142596.8721535043</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.6985623055397</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.2179353559856</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2453,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2462,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>61888.74063432982</v>
+        <v>29893.80475393197</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>189714.2631803005</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>251603.0038146303</v>
+        <v>219608.0679342325</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0283990138652</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.4899409779283</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2490,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2499,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>100713.3936164076</v>
+        <v>48647.08013148263</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>252952.3509070673</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>353665.7445234749</v>
+        <v>301599.43103855</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.3582357221906</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.9048840853101</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2527,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2536,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15534.81491020512</v>
+        <v>7503.702920019386</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>59495.18701726067</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>75030.00192746578</v>
+        <v>66998.88993728005</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.2900159629094</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.11945481813</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2564,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2573,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34175.81596556897</v>
+        <v>16507.77119246018</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>118990.3740345213</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>153166.1900000903</v>
+        <v>135498.1452269815</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.5411430369298</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.2061850285236</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2601,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2610,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>63374.75289035698</v>
+        <v>30611.58572327011</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>178485.561051782</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>241860.313942139</v>
+        <v>209097.1467750521</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.7922701109503</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.4397566468708</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2638,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2647,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103131.6256845692</v>
+        <v>49815.14651244917</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>237980.7480690427</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>341112.3737536118</v>
+        <v>287795.8945814918</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.0433971849707</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.8201696731713</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2675,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2684,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14986.76755654834</v>
+        <v>7238.982384131841</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>55893.45341564201</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>70880.22097219035</v>
+        <v>63132.43579977386</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.2142749383272</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.1389987740514</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2712,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2721,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32970.13919328329</v>
+        <v>15925.39925117259</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>111786.906831284</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>144757.0460245673</v>
+        <v>127712.3060824566</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.3896609877655</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.1698094629215</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2749,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2758,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61138.9769373782</v>
+        <v>29531.65019498421</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>167680.360246926</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>228819.3371843042</v>
+        <v>197212.0104419102</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.5650470372038</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.3427389735892</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2786,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2795,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>99493.28078883304</v>
+        <v>48057.73521556669</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>223573.813662568</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>323067.0944514011</v>
+        <v>271631.5488781348</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.7404330866421</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.6577873060546</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2823,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2832,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13805.61972414195</v>
+        <v>6668.458532368398</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>73346.85569033337</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>87152.47541447531</v>
+        <v>80015.31422270177</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.4735583619282</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.1317056104994</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2860,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2869,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30371.67302669037</v>
+        <v>14670.27530701628</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>146693.7113806667</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>177065.3844073571</v>
+        <v>161363.986687683</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.0193389460784</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.3737661847137</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2897,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2906,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>56320.44820443771</v>
+        <v>27204.18068005547</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>220040.5670710001</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>276361.0152754379</v>
+        <v>247244.7477510556</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.5651195302288</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.745440059738</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2934,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2943,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>91651.945257384</v>
+        <v>44270.17465148598</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>293387.4227613335</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>385039.3680187174</v>
+        <v>337657.5974128195</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.1109001143791</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.2467272355724</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2971,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +2980,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15706.03429138972</v>
+        <v>7586.406150021489</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>70226.02102767219</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>85932.05531906191</v>
+        <v>77812.42717769368</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4077869586078</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.1931677868582</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3008,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3017,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>34552.49004214645</v>
+        <v>16689.7141627915</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>140452.0420553444</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>175004.5320974908</v>
+        <v>157141.7562181359</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.8877961394379</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.4280208409673</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3045,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3054,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>64073.24759630201</v>
+        <v>30948.97608130873</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>210678.0630830166</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>274751.3106793186</v>
+        <v>241627.0391643253</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.3678053202678</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.8108566913245</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3082,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3091,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>104268.3069538564</v>
+        <v>50364.19190557316</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>280904.0841106888</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>385172.3910645452</v>
+        <v>331268.2760162619</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.8478145010979</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.3416753379297</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3119,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3128,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16467.40591889203</v>
+        <v>7954.16762883743</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>67246.35347289854</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>83713.75939179058</v>
+        <v>75200.52110173597</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3449906436187</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.2402298624339</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3156,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3165,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>36227.46954935841</v>
+        <v>17498.77102583675</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>134492.7069457971</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>170720.1764951555</v>
+        <v>151991.4779716338</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7622035094596</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.4503285925697</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3193,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3202,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>67179.28645351362</v>
+        <v>32449.27028997945</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>201739.0604186956</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>268918.3468722092</v>
+        <v>234188.3307086751</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1794163753005</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.8160839613233</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3230,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3239,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>109322.8566313577</v>
+        <v>52805.66542126555</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>268985.4138915942</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>378308.2705229518</v>
+        <v>321791.0793128597</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5966292411414</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3374959686947</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3267,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3276,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>16225.6070581978</v>
+        <v>7837.37275052467</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>64407.8530260124</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>80633.46008421019</v>
+        <v>72245.22577653707</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2851694169607</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.2750866895872</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3304,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3313,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>35695.5241472705</v>
+        <v>17241.82813401537</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>128815.7060520248</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>164511.2301992953</v>
+        <v>146057.5341860402</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.6425610561437</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.4454415597636</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3341,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3350,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>66192.86060072793</v>
+        <v>31972.80200923617</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>193223.5590780372</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>259416.4196787651</v>
+        <v>225196.3610872734</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.9999526953267</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.7696631092863</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3378,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3387,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>107717.6164185701</v>
+        <v>52030.29437618707</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>257631.4121040496</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>365349.0285226197</v>
+        <v>309661.7064802367</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.3573443345097</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.2477513381555</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3415,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3424,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>13653.84665183317</v>
+        <v>6595.148354394179</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>76019.33044823456</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>89673.17710006773</v>
+        <v>82614.47880262873</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4217644136395</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.1665266858945</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3452,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3461,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>30037.77985720392</v>
+        <v>14508.99658143557</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>152038.6608964691</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>182076.440753673</v>
+        <v>166547.6574779047</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.0268621606123</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.4429891204705</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3489,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3498,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>55701.2853107324</v>
+        <v>26905.10956525177</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>228057.9913447037</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>283759.276655436</v>
+        <v>254963.1009099554</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.6319599075852</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.8476399427221</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3526,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3535,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>90644.36301241866</v>
+        <v>43783.48730584278</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>304077.3217929382</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>394721.6848053569</v>
+        <v>347860.809098781</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.237057654558</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.3804791526491</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3563,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3572,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>15841.22093558251</v>
+        <v>7651.704669678174</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>73661.7289403059</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>89502.9498758884</v>
+        <v>81313.43360998407</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.371985221343</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.2426727541487</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3600,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3609,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>34849.89389920175</v>
+        <v>16833.36764070613</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>147323.4578806118</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>182173.3517798135</v>
+        <v>164156.8255213179</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.9273037760192</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.5274055128576</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3637,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3646,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>64624.74564885788</v>
+        <v>31215.36339079833</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>220985.1868209177</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>285609.9324697756</v>
+        <v>252200.550211716</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.4826223306956</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>298.9613948010339</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3674,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3683,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>105165.7761845509</v>
+        <v>50797.69191995478</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>294646.9157612236</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>399812.6919457745</v>
+        <v>345444.6076811784</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.0379408853719</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.5446406186778</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3711,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3720,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>16882.73594714009</v>
+        <v>8154.782387606745</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>71445.29454026475</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>88328.03048740485</v>
+        <v>79600.07692787149</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3251866789086</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.3044058597822</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3748,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3757,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>37141.17484243249</v>
+        <v>17940.1134631498</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>142890.5890805295</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>180031.763922962</v>
+        <v>160830.7025436793</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8337066911504</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.5798355932839</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3785,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3794,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>68873.63801549298</v>
+        <v>33267.68433846688</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>214335.8836207942</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>283209.5216362872</v>
+        <v>247603.5679592611</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.3422267033923</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.0148478342641</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3822,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3831,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>112080.1254663216</v>
+        <v>54137.495013558</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>285781.178161059</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>397861.3036273805</v>
+        <v>339918.673174617</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.8507467156341</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.6094425827227</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3859,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3868,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>16881.77138319873</v>
+        <v>8154.316479174286</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>69370.02724811112</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>86251.79863130985</v>
+        <v>77524.34372728541</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2813687863362</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.3534799262204</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3896,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3905,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>37139.05284999566</v>
+        <v>17939.0884878967</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>138740.0544962222</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>175879.1073462179</v>
+        <v>156679.1429841189</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.7460709060057</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.6040586804168</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3933,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3942,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>68869.70304737239</v>
+        <v>33265.78365075691</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>208110.0817443334</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>276979.7847917057</v>
+        <v>241375.8653950903</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>289.2107730256752</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.014726489827</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3970,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +3979,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>112073.7219753289</v>
+        <v>54134.40196775491</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>277480.1089924445</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>389553.8309677734</v>
+        <v>331614.5109601994</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.6754751453448</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.5854833544511</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4007,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4016,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>13423.42557202725</v>
+        <v>6483.849227924521</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>75139.57981786417</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>88563.00538989142</v>
+        <v>81623.4290457887</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.2947062295991</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.1511907288304</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4044,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4053,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>29530.86500411084</v>
+        <v>14264.14406884742</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>150279.1596357283</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>179810.0246398392</v>
+        <v>164543.3037045758</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.8838569036427</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.4116807562847</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4081,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4090,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>54761.2754633131</v>
+        <v>26451.0613723574</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>225418.7394535925</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>280180.0149169056</v>
+        <v>251869.8008259499</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.4730075776862</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.7981958757909</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4118,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4127,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>89114.65694963401</v>
+        <v>43044.60113845445</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>300558.3192714567</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>389672.9762210907</v>
+        <v>343602.9204099111</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.0621582517297</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.310736087349</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4155,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4164,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>15746.56920990642</v>
+        <v>7605.985526293084</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>73545.21146466801</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>89291.78067457443</v>
+        <v>81151.19699096109</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.2609864304028</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.2397452175783</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4192,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4201,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>34641.6648358864</v>
+        <v>16732.78781149903</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>147090.422929336</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>181732.0877652224</v>
+        <v>163823.2107408351</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.81641730525</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.5212880651813</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4229,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4238,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>64238.61103701726</v>
+        <v>31028.85074606217</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>220635.634394004</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>284874.2454310213</v>
+        <v>251664.4851400662</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.3718481800972</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>298.9511956304312</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4266,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4275,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>104537.407813299</v>
+        <v>50494.17432998252</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>294180.8458586721</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>398718.2536719711</v>
+        <v>344675.0201886546</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>294.9272790549443</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.529467913328</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4303,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4312,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>16968.59069292558</v>
+        <v>8196.252370375887</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>72092.01021935938</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>89060.60091228495</v>
+        <v>80288.26258973527</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.230252218898</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.3145945627583</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4340,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4349,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>37330.05098989194</v>
+        <v>18031.34535148614</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>144184.0204387188</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>181514.0714286107</v>
+        <v>162215.3657902049</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.7549488822404</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.6004517557461</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4377,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4386,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>69223.88507862632</v>
+        <v>33436.86240241893</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>216276.0306580781</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>285499.9157367045</v>
+        <v>249712.8930604971</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.2796455455828</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.0467029902939</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4414,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4423,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>112650.0929591287</v>
+        <v>54412.80352317425</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>288368.0408774375</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>401018.1338365662</v>
+        <v>342780.8444006118</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.8043422089252</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.6533482664018</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4451,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4460,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>17160.37696292134</v>
+        <v>8288.889920453261</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>70779.97608193826</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>87940.3530448596</v>
+        <v>79068.86600239153</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.2025035950847</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.377040493922</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4488,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4497,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>37751.97119338226</v>
+        <v>18235.14332920557</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>141559.9521638765</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>179311.9233572588</v>
+        <v>159795.0954930821</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.6994516346139</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.651957103699</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4525,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4534,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>70006.28303695412</v>
+        <v>33814.78012325801</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>212339.9282458148</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>282346.2112827689</v>
+        <v>246154.7083690728</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>293.1963996741431</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.0896047724834</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4562,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.01728253531708513</v>
+        <v>0.0146884330992907</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4571,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>113923.3124936369</v>
+        <v>55027.80030261054</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>283119.9043277531</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>397043.21682139</v>
+        <v>338147.7046303636</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.6933477136723</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.6899835002749</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4771,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.01130153653374901</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.01130153653374901</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.01130153653374901</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.01130153653374901</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.0146884330992907</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.0146884330992907</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.0146884330992907</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.0146884330992907</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>